--- a/tables/PSO/SPSO_pop_40_w_7_c1_14_c2_14/PSO_table1_dim30.xlsx
+++ b/tables/PSO/SPSO_pop_40_w_7_c1_14_c2_14/PSO_table1_dim30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>F#</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Success Rate</t>
   </si>
   <si>
+    <t>F14</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>F7</t>
+  </si>
+  <si>
+    <t>F9</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +442,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>50078857.543831</v>
+        <v>29.964534</v>
       </c>
       <c r="C2" t="n">
-        <v>638595043.104008</v>
+        <v>110.125733</v>
       </c>
       <c r="D2" t="n">
-        <v>233593099.959939</v>
+        <v>66.08535999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>256519066.10787</v>
+        <v>67.098365</v>
       </c>
       <c r="F2" t="n">
-        <v>120478451.535957</v>
+        <v>21.375004</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -459,19 +465,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>2965276436.119786</v>
+        <v>50078857.543831</v>
       </c>
       <c r="C3" t="n">
-        <v>21958340478.37074</v>
+        <v>638595043.104008</v>
       </c>
       <c r="D3" t="n">
-        <v>11497428660.73598</v>
+        <v>233593099.959939</v>
       </c>
       <c r="E3" t="n">
-        <v>11312195988.80058</v>
+        <v>256519066.10787</v>
       </c>
       <c r="F3" t="n">
-        <v>4306563734.076015</v>
+        <v>120478451.535957</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -482,19 +488,19 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>26.730286</v>
+        <v>2965276436.119786</v>
       </c>
       <c r="C4" t="n">
-        <v>37.300524</v>
+        <v>21958340478.37074</v>
       </c>
       <c r="D4" t="n">
-        <v>30.669193</v>
+        <v>11497428660.73598</v>
       </c>
       <c r="E4" t="n">
-        <v>31.198541</v>
+        <v>11312195988.80058</v>
       </c>
       <c r="F4" t="n">
-        <v>2.757598</v>
+        <v>4306563734.076015</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -505,21 +511,67 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
+        <v>26.730286</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37.300524</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.669193</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31.198541</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.757598</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
         <v>52.811673</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>318.013523</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>132.453624</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>142.424669</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F6" t="n">
         <v>64.985068</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>145.809334</v>
+      </c>
+      <c r="C7" t="n">
+        <v>260.827413</v>
+      </c>
+      <c r="D7" t="n">
+        <v>215.256504</v>
+      </c>
+      <c r="E7" t="n">
+        <v>207.540475</v>
+      </c>
+      <c r="F7" t="n">
+        <v>30.820482</v>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
